--- a/cfg/robots1.xlsx
+++ b/cfg/robots1.xlsx
@@ -346,8 +346,8 @@
   </sheetPr>
   <dimension ref="A1:BL3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -601,7 +601,7 @@
         <v>1000001</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>1</v>
@@ -610,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R2" s="0" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
         <v>1000002</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>1</v>
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R3" s="0" t="n">
         <v>1</v>

--- a/cfg/robots1.xlsx
+++ b/cfg/robots1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="74">
   <si>
     <t xml:space="preserve">Uid</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve">XzmjTableId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DdzRoomId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DdzTableId</t>
   </si>
   <si>
     <t xml:space="preserve">TaskCount</t>
@@ -344,10 +350,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BL3"/>
+  <dimension ref="A1:BN3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
+      <selection pane="topLeft" activeCell="O16" activeCellId="0" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -363,7 +369,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,6 +569,12 @@
       <c r="BL1" s="0" t="s">
         <v>63</v>
       </c>
+      <c r="BM1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="0" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -568,25 +584,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -601,22 +617,22 @@
         <v>1000001</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>3</v>
+        <v>8901</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>1</v>
+        <v>8900001</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>3</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>1</v>
@@ -751,6 +767,12 @@
         <v>1</v>
       </c>
       <c r="BL2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -762,25 +784,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>123456</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -795,22 +817,22 @@
         <v>1000002</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>3</v>
+        <v>8901</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>1</v>
+        <v>8900002</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>3</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>1</v>
@@ -945,6 +967,12 @@
         <v>1</v>
       </c>
       <c r="BL3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
